--- a/Code/Results/Cases/Case_1_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02080635383136</v>
+        <v>19.40724839967093</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.175079239701347</v>
+        <v>4.224014819138913</v>
       </c>
       <c r="E2">
-        <v>6.621219325878084</v>
+        <v>10.49168018273442</v>
       </c>
       <c r="F2">
-        <v>68.39331700449142</v>
+        <v>67.00831813771507</v>
       </c>
       <c r="G2">
-        <v>2.175662710276315</v>
+        <v>3.816963889247042</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.586966418890724</v>
+        <v>10.8198374715759</v>
       </c>
       <c r="K2">
-        <v>12.6816993266657</v>
+        <v>17.40621676252509</v>
       </c>
       <c r="L2">
-        <v>6.042599942936351</v>
+        <v>11.57093747002975</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.60295405108266</v>
+        <v>19.42037544281899</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.842473873711731</v>
+        <v>4.093170547565819</v>
       </c>
       <c r="E3">
-        <v>6.581484205865531</v>
+        <v>10.48530197573399</v>
       </c>
       <c r="F3">
-        <v>65.46823011973053</v>
+        <v>66.16903701268269</v>
       </c>
       <c r="G3">
-        <v>2.187753960806566</v>
+        <v>3.821033700799329</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.524678070728698</v>
+        <v>10.80287517787516</v>
       </c>
       <c r="K3">
-        <v>12.07127930771936</v>
+        <v>17.41054528819653</v>
       </c>
       <c r="L3">
-        <v>5.976911884080024</v>
+        <v>11.62335430146027</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.35265968521855</v>
+        <v>19.4336601485137</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.631568730428267</v>
+        <v>4.010937432710511</v>
       </c>
       <c r="E4">
-        <v>6.557817911321857</v>
+        <v>10.48136693515264</v>
       </c>
       <c r="F4">
-        <v>63.6411720141292</v>
+        <v>65.65229266315593</v>
       </c>
       <c r="G4">
-        <v>2.195329958118626</v>
+        <v>3.823659902145234</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.486841500101327</v>
+        <v>10.79227442009194</v>
       </c>
       <c r="K4">
-        <v>11.6996446656281</v>
+        <v>17.41982035980609</v>
       </c>
       <c r="L4">
-        <v>5.94480006356373</v>
+        <v>11.65858724392999</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.25233774835809</v>
+        <v>19.44038689404548</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.543961452822392</v>
+        <v>3.97699063797426</v>
       </c>
       <c r="E5">
-        <v>6.54832934325974</v>
+        <v>10.47975830135992</v>
       </c>
       <c r="F5">
-        <v>62.88928661807686</v>
+        <v>65.44150869475952</v>
       </c>
       <c r="G5">
-        <v>2.198458714919522</v>
+        <v>3.824762244961114</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.471504451470734</v>
+        <v>10.78790740823387</v>
       </c>
       <c r="K5">
-        <v>11.54917715195288</v>
+        <v>17.42526098685786</v>
       </c>
       <c r="L5">
-        <v>5.933703945086356</v>
+        <v>11.67371013712301</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23578355159288</v>
+        <v>19.44158314164091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.529314796717248</v>
+        <v>3.971328691817858</v>
       </c>
       <c r="E6">
-        <v>6.546762401213361</v>
+        <v>10.47949087250419</v>
       </c>
       <c r="F6">
-        <v>62.76400887539043</v>
+        <v>65.40650011389411</v>
       </c>
       <c r="G6">
-        <v>2.198980838350701</v>
+        <v>3.824947233366021</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.468962094885059</v>
+        <v>10.7871794121149</v>
       </c>
       <c r="K6">
-        <v>11.52425705793419</v>
+        <v>17.42626460054326</v>
       </c>
       <c r="L6">
-        <v>5.931979312165631</v>
+        <v>11.67626745426251</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.35129979062805</v>
+        <v>19.43374555242482</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.630393920919551</v>
+        <v>4.010481324838621</v>
       </c>
       <c r="E7">
-        <v>6.557689350287483</v>
+        <v>10.48134526151479</v>
       </c>
       <c r="F7">
-        <v>63.63106086336406</v>
+        <v>65.64945059373292</v>
       </c>
       <c r="G7">
-        <v>2.195371981555124</v>
+        <v>3.823674638406028</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.486634355265107</v>
+        <v>10.7922157163005</v>
       </c>
       <c r="K7">
-        <v>11.69761118999121</v>
+        <v>17.41988701399906</v>
       </c>
       <c r="L7">
-        <v>5.94464246498694</v>
+        <v>11.65878810035205</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.8754863913214</v>
+        <v>19.41069002878286</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.061791258117171</v>
+        <v>4.179316000028145</v>
       </c>
       <c r="E8">
-        <v>6.607348975808944</v>
+        <v>10.48948466723992</v>
       </c>
       <c r="F8">
-        <v>67.39142826824022</v>
+        <v>66.7193200099875</v>
       </c>
       <c r="G8">
-        <v>2.179802302278245</v>
+        <v>3.818340812507023</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.565391255040166</v>
+        <v>10.81402721018953</v>
       </c>
       <c r="K8">
-        <v>12.47066648769074</v>
+        <v>17.40633441799278</v>
       </c>
       <c r="L8">
-        <v>6.01819836952839</v>
+        <v>11.58837714066772</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.94941197962632</v>
+        <v>19.40693546581859</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.854637179419409</v>
+        <v>4.493765153543601</v>
       </c>
       <c r="E9">
-        <v>6.711976825549408</v>
+        <v>10.50531317618705</v>
       </c>
       <c r="F9">
-        <v>74.50573496999945</v>
+        <v>68.79942040413599</v>
       </c>
       <c r="G9">
-        <v>2.150311620414382</v>
+        <v>3.808885554909869</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.724141010858309</v>
+        <v>10.85534336488878</v>
       </c>
       <c r="K9">
-        <v>14.36529790770779</v>
+        <v>17.43233320639701</v>
       </c>
       <c r="L9">
-        <v>6.231071534518875</v>
+        <v>11.47455765923322</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.76273720833534</v>
+        <v>19.42941278664656</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.405710256529101</v>
+        <v>4.712723450725488</v>
       </c>
       <c r="E10">
-        <v>6.795583805975469</v>
+        <v>10.51688492408191</v>
       </c>
       <c r="F10">
-        <v>79.56664772874917</v>
+        <v>70.30796458615491</v>
       </c>
       <c r="G10">
-        <v>2.12902233926889</v>
+        <v>3.802542833986239</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.845085507181454</v>
+        <v>10.88483770706924</v>
       </c>
       <c r="K10">
-        <v>15.88095377023354</v>
+        <v>17.48348547198573</v>
       </c>
       <c r="L10">
-        <v>6.637309759825073</v>
+        <v>11.40581112408624</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.13769104992673</v>
+        <v>19.4450949548717</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.650086216809415</v>
+        <v>4.809367408061481</v>
       </c>
       <c r="E11">
-        <v>6.835704421355766</v>
+        <v>10.52214191503644</v>
       </c>
       <c r="F11">
-        <v>81.83440196372634</v>
+        <v>70.98813341409425</v>
       </c>
       <c r="G11">
-        <v>2.119352437132985</v>
+        <v>3.79978677017717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.901484799631747</v>
+        <v>10.89807436943839</v>
       </c>
       <c r="K11">
-        <v>16.55043000357073</v>
+        <v>17.51368351060297</v>
       </c>
       <c r="L11">
-        <v>6.912760147626481</v>
+        <v>11.37778585200262</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.28040039145684</v>
+        <v>19.45181486302899</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.741778955051401</v>
+        <v>4.845513201718778</v>
       </c>
       <c r="E12">
-        <v>6.85125947613557</v>
+        <v>10.5241319934465</v>
       </c>
       <c r="F12">
-        <v>82.68850982647066</v>
+        <v>71.24467201514307</v>
       </c>
       <c r="G12">
-        <v>2.115686324072006</v>
+        <v>3.798761573855</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.92308366074047</v>
+        <v>10.90306120998918</v>
       </c>
       <c r="K12">
-        <v>16.8013462065638</v>
+        <v>17.52610982173931</v>
       </c>
       <c r="L12">
-        <v>7.016050826383832</v>
+        <v>11.3676420094427</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.2496327607212</v>
+        <v>19.4503329179951</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.722067822536645</v>
+        <v>4.837748998889063</v>
       </c>
       <c r="E13">
-        <v>6.847892207056268</v>
+        <v>10.5237034163059</v>
       </c>
       <c r="F13">
-        <v>82.5047619414097</v>
+        <v>71.18946988767283</v>
       </c>
       <c r="G13">
-        <v>2.116476192291054</v>
+        <v>3.798981548948985</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.918420454846313</v>
+        <v>10.90198833747059</v>
       </c>
       <c r="K13">
-        <v>16.74741767431372</v>
+        <v>17.52338962145805</v>
       </c>
       <c r="L13">
-        <v>6.993848269971421</v>
+        <v>11.36980579448939</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.14941718830038</v>
+        <v>19.4456321668217</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.657646407197989</v>
+        <v>4.812350321890483</v>
       </c>
       <c r="E14">
-        <v>6.836976493065163</v>
+        <v>10.5223056503876</v>
       </c>
       <c r="F14">
-        <v>81.90476052010436</v>
+        <v>71.00926043533066</v>
       </c>
       <c r="G14">
-        <v>2.119050950806292</v>
+        <v>3.799702057296989</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.903256637443853</v>
+        <v>10.89848515078452</v>
       </c>
       <c r="K14">
-        <v>16.57112339808451</v>
+        <v>17.51468600640712</v>
       </c>
       <c r="L14">
-        <v>6.921277494746672</v>
+        <v>11.37694190859398</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.08812715211736</v>
+        <v>19.44285447237228</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.618078178640109</v>
+        <v>4.796733437298304</v>
       </c>
       <c r="E15">
-        <v>6.830339494073488</v>
+        <v>10.5214494078655</v>
       </c>
       <c r="F15">
-        <v>81.53665022899472</v>
+        <v>70.89873877975332</v>
       </c>
       <c r="G15">
-        <v>2.120627293817449</v>
+        <v>3.800145790509695</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.894001223471698</v>
+        <v>10.89633602483632</v>
       </c>
       <c r="K15">
-        <v>16.46280842172379</v>
+        <v>17.50948365880646</v>
       </c>
       <c r="L15">
-        <v>6.876697600852336</v>
+        <v>11.38137407512576</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.73833300415022</v>
+        <v>19.42849746529295</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.389617516339143</v>
+        <v>4.706345722168819</v>
       </c>
       <c r="E16">
-        <v>6.793008915686145</v>
+        <v>10.51654125815503</v>
       </c>
       <c r="F16">
-        <v>79.41777400274034</v>
+        <v>70.26337854039878</v>
       </c>
       <c r="G16">
-        <v>2.129654055303382</v>
+        <v>3.802725539917529</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.841431010064865</v>
+        <v>10.88396905906857</v>
       </c>
       <c r="K16">
-        <v>15.83682208314033</v>
+        <v>17.4816509582066</v>
       </c>
       <c r="L16">
-        <v>6.619158712228767</v>
+        <v>11.4077081411207</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.52501358894185</v>
+        <v>19.42108548950992</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.247885906805096</v>
+        <v>4.650118410884396</v>
       </c>
       <c r="E17">
-        <v>6.770683577222401</v>
+        <v>10.51352873238121</v>
       </c>
       <c r="F17">
-        <v>78.10925261235208</v>
+        <v>69.87193954926163</v>
       </c>
       <c r="G17">
-        <v>2.135191136024128</v>
+        <v>3.804341153958276</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.809563311601033</v>
+        <v>10.87633635892258</v>
       </c>
       <c r="K17">
-        <v>15.44786007018896</v>
+        <v>17.46634776596648</v>
       </c>
       <c r="L17">
-        <v>6.459211917644997</v>
+        <v>11.4246962977594</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40278315911714</v>
+        <v>19.41733621442895</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.165767138806765</v>
+        <v>4.617500552851348</v>
       </c>
       <c r="E18">
-        <v>6.758034854005601</v>
+        <v>10.51179531986722</v>
       </c>
       <c r="F18">
-        <v>77.35335110489503</v>
+        <v>69.6462312700337</v>
       </c>
       <c r="G18">
-        <v>2.138377736612685</v>
+        <v>3.805282587481749</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.791360920840367</v>
+        <v>10.87192922489147</v>
       </c>
       <c r="K18">
-        <v>15.22223767915621</v>
+        <v>17.45819834915772</v>
       </c>
       <c r="L18">
-        <v>6.366455405978607</v>
+        <v>11.43477304219024</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36147822927848</v>
+        <v>19.41615512513146</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.13785877255388</v>
+        <v>4.606409881679074</v>
       </c>
       <c r="E19">
-        <v>6.753783494198901</v>
+        <v>10.51120828649468</v>
       </c>
       <c r="F19">
-        <v>77.09684654704711</v>
+        <v>69.56971836300012</v>
       </c>
       <c r="G19">
-        <v>2.1394571591293</v>
+        <v>3.805603435552744</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.785218516309682</v>
+        <v>10.87043411325406</v>
       </c>
       <c r="K19">
-        <v>15.14551144571097</v>
+        <v>17.45555131458767</v>
       </c>
       <c r="L19">
-        <v>6.334915529210147</v>
+        <v>11.4382372912421</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54767369900943</v>
+        <v>19.42182134217039</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.263035036196016</v>
+        <v>4.656132805980966</v>
       </c>
       <c r="E20">
-        <v>6.773039835161631</v>
+        <v>10.51384948926085</v>
       </c>
       <c r="F20">
-        <v>78.24888410715135</v>
+        <v>69.91366827853172</v>
       </c>
       <c r="G20">
-        <v>2.134601559990164</v>
+        <v>3.804167909912143</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.812942239609604</v>
+        <v>10.87715063043998</v>
       </c>
       <c r="K20">
-        <v>15.48946069360978</v>
+        <v>17.46790931179294</v>
       </c>
       <c r="L20">
-        <v>6.476316226621575</v>
+        <v>11.42285623818758</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.17883309266116</v>
+        <v>19.44699171431607</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.676590966878022</v>
+        <v>4.819822962138629</v>
       </c>
       <c r="E21">
-        <v>6.840172326009538</v>
+        <v>10.52271622213018</v>
       </c>
       <c r="F21">
-        <v>82.08111806207367</v>
+        <v>71.06222138010592</v>
       </c>
       <c r="G21">
-        <v>2.118294855304311</v>
+        <v>3.799489926374285</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.907703683514041</v>
+        <v>10.89951481351054</v>
       </c>
       <c r="K21">
-        <v>16.62297344174847</v>
+        <v>17.5172156248894</v>
       </c>
       <c r="L21">
-        <v>6.94261974906321</v>
+        <v>11.37483312470713</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.59557200379386</v>
+        <v>19.46799459515807</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.941976092508867</v>
+        <v>4.924164295783247</v>
       </c>
       <c r="E22">
-        <v>6.886195321834607</v>
+        <v>10.52850765472316</v>
       </c>
       <c r="F22">
-        <v>84.55892471156281</v>
+        <v>71.80681551004992</v>
       </c>
       <c r="G22">
-        <v>2.107608547780965</v>
+        <v>3.796540165912105</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.971069357401015</v>
+        <v>10.91398206676786</v>
       </c>
       <c r="K22">
-        <v>17.34879615700281</v>
+        <v>17.55521270296482</v>
       </c>
       <c r="L22">
-        <v>7.241525528658258</v>
+        <v>11.34618006333189</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.37275102906569</v>
+        <v>19.45636969269763</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.80075887482023</v>
+        <v>4.868724560532751</v>
       </c>
       <c r="E23">
-        <v>6.861412157037101</v>
+        <v>10.52541684913896</v>
       </c>
       <c r="F23">
-        <v>83.23877239320599</v>
+        <v>71.41001483012374</v>
       </c>
       <c r="G23">
-        <v>2.113317057345208</v>
+        <v>3.798104706571387</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.937102732049368</v>
+        <v>10.90627414221382</v>
       </c>
       <c r="K23">
-        <v>16.96267976632052</v>
+        <v>17.53440692791388</v>
       </c>
       <c r="L23">
-        <v>7.082481374148099</v>
+        <v>11.36122213948038</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.53742778713735</v>
+        <v>19.42148706827257</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.256188098184079</v>
+        <v>4.653414605606089</v>
       </c>
       <c r="E24">
-        <v>6.771973994857657</v>
+        <v>10.5137044796873</v>
       </c>
       <c r="F24">
-        <v>78.18576799035807</v>
+        <v>69.89480477905738</v>
       </c>
       <c r="G24">
-        <v>2.134868096689638</v>
+        <v>3.804246194303952</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.811414259465107</v>
+        <v>10.87678255747292</v>
       </c>
       <c r="K24">
-        <v>15.47065931081009</v>
+        <v>17.46720131631716</v>
       </c>
       <c r="L24">
-        <v>6.468585872977182</v>
+        <v>11.42368716358284</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.6544200023114</v>
+        <v>19.40351386907567</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.645792460456324</v>
+        <v>4.410690208395749</v>
       </c>
       <c r="E25">
-        <v>6.682676513261473</v>
+        <v>10.5010429508532</v>
       </c>
       <c r="F25">
-        <v>72.61025275727494</v>
+        <v>68.23952850721616</v>
       </c>
       <c r="G25">
-        <v>2.158202888367541</v>
+        <v>3.811336780912182</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.680572444610445</v>
+        <v>10.8443193203421</v>
       </c>
       <c r="K25">
-        <v>13.78778976583723</v>
+        <v>17.41966528446622</v>
       </c>
       <c r="L25">
-        <v>6.165656626792301</v>
+        <v>11.50274276419983</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_149/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.40724839967093</v>
+        <v>13.02080635383146</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.224014819138913</v>
+        <v>6.175079239701343</v>
       </c>
       <c r="E2">
-        <v>10.49168018273442</v>
+        <v>6.621219325878219</v>
       </c>
       <c r="F2">
-        <v>67.00831813771507</v>
+        <v>68.39331700449137</v>
       </c>
       <c r="G2">
-        <v>3.816963889247042</v>
+        <v>2.175662710276049</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.8198374715759</v>
+        <v>7.586966418890773</v>
       </c>
       <c r="K2">
-        <v>17.40621676252509</v>
+        <v>12.68169932666573</v>
       </c>
       <c r="L2">
-        <v>11.57093747002975</v>
+        <v>6.04259994293639</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.42037544281899</v>
+        <v>12.60295405108266</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.093170547565819</v>
+        <v>5.842473873711737</v>
       </c>
       <c r="E3">
-        <v>10.48530197573399</v>
+        <v>6.581484205865597</v>
       </c>
       <c r="F3">
-        <v>66.16903701268269</v>
+        <v>65.46823011973058</v>
       </c>
       <c r="G3">
-        <v>3.821033700799329</v>
+        <v>2.187753960806703</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.80287517787516</v>
+        <v>7.524678070728756</v>
       </c>
       <c r="K3">
-        <v>17.41054528819653</v>
+        <v>12.07127930771937</v>
       </c>
       <c r="L3">
-        <v>11.62335430146027</v>
+        <v>5.976911884080007</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.4336601485137</v>
+        <v>12.35265968521842</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.010937432710511</v>
+        <v>5.631568730428283</v>
       </c>
       <c r="E4">
-        <v>10.48136693515264</v>
+        <v>6.557817911321788</v>
       </c>
       <c r="F4">
-        <v>65.65229266315593</v>
+        <v>63.64117201412899</v>
       </c>
       <c r="G4">
-        <v>3.823659902145234</v>
+        <v>2.195329958118494</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.79227442009194</v>
+        <v>7.486841500101295</v>
       </c>
       <c r="K4">
-        <v>17.41982035980609</v>
+        <v>11.69964466562809</v>
       </c>
       <c r="L4">
-        <v>11.65858724392999</v>
+        <v>5.944800063563696</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.44038689404548</v>
+        <v>12.25233774835808</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.97699063797426</v>
+        <v>5.543961452822392</v>
       </c>
       <c r="E5">
-        <v>10.47975830135992</v>
+        <v>6.548329343259808</v>
       </c>
       <c r="F5">
-        <v>65.44150869475952</v>
+        <v>62.88928661807685</v>
       </c>
       <c r="G5">
-        <v>3.824762244961114</v>
+        <v>2.198458714919396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.78790740823387</v>
+        <v>7.471504451470769</v>
       </c>
       <c r="K5">
-        <v>17.42526098685786</v>
+        <v>11.54917715195285</v>
       </c>
       <c r="L5">
-        <v>11.67371013712301</v>
+        <v>5.933703945086356</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.44158314164091</v>
+        <v>12.2357835515929</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.971328691817858</v>
+        <v>5.529314796717181</v>
       </c>
       <c r="E6">
-        <v>10.47949087250419</v>
+        <v>6.546762401213427</v>
       </c>
       <c r="F6">
-        <v>65.40650011389411</v>
+        <v>62.76400887539035</v>
       </c>
       <c r="G6">
-        <v>3.824947233366021</v>
+        <v>2.198980838350838</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.7871794121149</v>
+        <v>7.468962094885025</v>
       </c>
       <c r="K6">
-        <v>17.42626460054326</v>
+        <v>11.52425705793415</v>
       </c>
       <c r="L6">
-        <v>11.67626745426251</v>
+        <v>5.931979312165648</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.43374555242482</v>
+        <v>12.35129979062801</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.010481324838621</v>
+        <v>5.630393920919594</v>
       </c>
       <c r="E7">
-        <v>10.48134526151479</v>
+        <v>6.55768935028755</v>
       </c>
       <c r="F7">
-        <v>65.64945059373292</v>
+        <v>63.63106086336386</v>
       </c>
       <c r="G7">
-        <v>3.823674638406028</v>
+        <v>2.195371981555255</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.7922157163005</v>
+        <v>7.486634355265134</v>
       </c>
       <c r="K7">
-        <v>17.41988701399906</v>
+        <v>11.69761118999118</v>
       </c>
       <c r="L7">
-        <v>11.65878810035205</v>
+        <v>5.944642464986895</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.41069002878286</v>
+        <v>12.87548639132135</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.179316000028145</v>
+        <v>6.061791258117213</v>
       </c>
       <c r="E8">
-        <v>10.48948466723992</v>
+        <v>6.607348975808809</v>
       </c>
       <c r="F8">
-        <v>66.7193200099875</v>
+        <v>67.39142826824029</v>
       </c>
       <c r="G8">
-        <v>3.818340812507023</v>
+        <v>2.179802302278248</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.81402721018953</v>
+        <v>7.56539125504011</v>
       </c>
       <c r="K8">
-        <v>17.40633441799278</v>
+        <v>12.47066648769074</v>
       </c>
       <c r="L8">
-        <v>11.58837714066772</v>
+        <v>6.018198369528373</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.40693546581859</v>
+        <v>13.94941197962637</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.493765153543601</v>
+        <v>6.854637179419375</v>
       </c>
       <c r="E9">
-        <v>10.50531317618705</v>
+        <v>6.711976825549478</v>
       </c>
       <c r="F9">
-        <v>68.79942040413599</v>
+        <v>74.50573496999962</v>
       </c>
       <c r="G9">
-        <v>3.808885554909869</v>
+        <v>2.150311620414513</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.85534336488878</v>
+        <v>7.724141010858357</v>
       </c>
       <c r="K9">
-        <v>17.43233320639701</v>
+        <v>14.3652979077078</v>
       </c>
       <c r="L9">
-        <v>11.47455765923322</v>
+        <v>6.231071534518825</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.42941278664656</v>
+        <v>14.76273720833528</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.712723450725488</v>
+        <v>7.405710256529156</v>
       </c>
       <c r="E10">
-        <v>10.51688492408191</v>
+        <v>6.795583805975197</v>
       </c>
       <c r="F10">
-        <v>70.30796458615491</v>
+        <v>79.56664772874929</v>
       </c>
       <c r="G10">
-        <v>3.802542833986239</v>
+        <v>2.129022339268777</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.88483770706924</v>
+        <v>7.845085507181425</v>
       </c>
       <c r="K10">
-        <v>17.48348547198573</v>
+        <v>15.88095377023362</v>
       </c>
       <c r="L10">
-        <v>11.40581112408624</v>
+        <v>6.637309759825091</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.4450949548717</v>
+        <v>15.13769104992665</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.809367408061481</v>
+        <v>7.650086216809475</v>
       </c>
       <c r="E11">
-        <v>10.52214191503644</v>
+        <v>6.835704421355699</v>
       </c>
       <c r="F11">
-        <v>70.98813341409425</v>
+        <v>81.83440196372669</v>
       </c>
       <c r="G11">
-        <v>3.79978677017717</v>
+        <v>2.119352437132985</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.89807436943839</v>
+        <v>7.901484799631805</v>
       </c>
       <c r="K11">
-        <v>17.51368351060297</v>
+        <v>16.55043000357083</v>
       </c>
       <c r="L11">
-        <v>11.37778585200262</v>
+        <v>6.912760147626475</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.45181486302899</v>
+        <v>15.28040039145687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.845513201718778</v>
+        <v>7.741778955051344</v>
       </c>
       <c r="E12">
-        <v>10.5241319934465</v>
+        <v>6.851259476135575</v>
       </c>
       <c r="F12">
-        <v>71.24467201514307</v>
+        <v>82.68850982647075</v>
       </c>
       <c r="G12">
-        <v>3.798761573855</v>
+        <v>2.115686324072157</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.90306120998918</v>
+        <v>7.923083660740474</v>
       </c>
       <c r="K12">
-        <v>17.52610982173931</v>
+        <v>16.8013462065638</v>
       </c>
       <c r="L12">
-        <v>11.3676420094427</v>
+        <v>7.016050826383798</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.4503329179951</v>
+        <v>15.24963276072118</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.837748998889063</v>
+        <v>7.722067822536687</v>
       </c>
       <c r="E13">
-        <v>10.5237034163059</v>
+        <v>6.847892207056394</v>
       </c>
       <c r="F13">
-        <v>71.18946988767283</v>
+        <v>82.50476194140943</v>
       </c>
       <c r="G13">
-        <v>3.798981548948985</v>
+        <v>2.116476192290911</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.90198833747059</v>
+        <v>7.918420454846356</v>
       </c>
       <c r="K13">
-        <v>17.52338962145805</v>
+        <v>16.74741767431374</v>
       </c>
       <c r="L13">
-        <v>11.36980579448939</v>
+        <v>6.993848269971411</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.4456321668217</v>
+        <v>15.14941718830037</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.812350321890483</v>
+        <v>7.657646407198062</v>
       </c>
       <c r="E14">
-        <v>10.5223056503876</v>
+        <v>6.836976493065028</v>
       </c>
       <c r="F14">
-        <v>71.00926043533066</v>
+        <v>81.90476052010462</v>
       </c>
       <c r="G14">
-        <v>3.799702057296989</v>
+        <v>2.11905095080618</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.89848515078452</v>
+        <v>7.903256637443794</v>
       </c>
       <c r="K14">
-        <v>17.51468600640712</v>
+        <v>16.57112339808458</v>
       </c>
       <c r="L14">
-        <v>11.37694190859398</v>
+        <v>6.921277494746708</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.44285447237228</v>
+        <v>15.08812715211738</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.796733437298304</v>
+        <v>7.618078178640173</v>
       </c>
       <c r="E15">
-        <v>10.5214494078655</v>
+        <v>6.830339494073296</v>
       </c>
       <c r="F15">
-        <v>70.89873877975332</v>
+        <v>81.53665022899487</v>
       </c>
       <c r="G15">
-        <v>3.800145790509695</v>
+        <v>2.120627293817472</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.89633602483632</v>
+        <v>7.894001223471787</v>
       </c>
       <c r="K15">
-        <v>17.50948365880646</v>
+        <v>16.46280842172375</v>
       </c>
       <c r="L15">
-        <v>11.38137407512576</v>
+        <v>6.876697600852346</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.42849746529295</v>
+        <v>14.73833300415022</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.706345722168819</v>
+        <v>7.389617516339106</v>
       </c>
       <c r="E16">
-        <v>10.51654125815503</v>
+        <v>6.79300891568648</v>
       </c>
       <c r="F16">
-        <v>70.26337854039878</v>
+        <v>79.41777400274023</v>
       </c>
       <c r="G16">
-        <v>3.802725539917529</v>
+        <v>2.129654055303634</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.88396905906857</v>
+        <v>7.841431010064991</v>
       </c>
       <c r="K16">
-        <v>17.4816509582066</v>
+        <v>15.83682208314033</v>
       </c>
       <c r="L16">
-        <v>11.4077081411207</v>
+        <v>6.619158712228704</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.42108548950992</v>
+        <v>14.52501358894186</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.650118410884396</v>
+        <v>7.247885906805099</v>
       </c>
       <c r="E17">
-        <v>10.51352873238121</v>
+        <v>6.77068357722227</v>
       </c>
       <c r="F17">
-        <v>69.87193954926163</v>
+        <v>78.10925261235188</v>
       </c>
       <c r="G17">
-        <v>3.804341153958276</v>
+        <v>2.135191136024124</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.87633635892258</v>
+        <v>7.809563311600969</v>
       </c>
       <c r="K17">
-        <v>17.46634776596648</v>
+        <v>15.44786007018885</v>
       </c>
       <c r="L17">
-        <v>11.4246962977594</v>
+        <v>6.459211917644955</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.41733621442895</v>
+        <v>14.40278315911719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.617500552851348</v>
+        <v>7.165767138806705</v>
       </c>
       <c r="E18">
-        <v>10.51179531986722</v>
+        <v>6.758034854005601</v>
       </c>
       <c r="F18">
-        <v>69.6462312700337</v>
+        <v>77.35335110489487</v>
       </c>
       <c r="G18">
-        <v>3.805282587481749</v>
+        <v>2.138377736612421</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.87192922489147</v>
+        <v>7.791360920840352</v>
       </c>
       <c r="K18">
-        <v>17.45819834915772</v>
+        <v>15.2222376791562</v>
       </c>
       <c r="L18">
-        <v>11.43477304219024</v>
+        <v>6.366455405978559</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.41615512513146</v>
+        <v>14.36147822927849</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.606409881679074</v>
+        <v>7.137858772553899</v>
       </c>
       <c r="E19">
-        <v>10.51120828649468</v>
+        <v>6.753783494198695</v>
       </c>
       <c r="F19">
-        <v>69.56971836300012</v>
+        <v>77.09684654704716</v>
       </c>
       <c r="G19">
-        <v>3.805603435552744</v>
+        <v>2.139457159129419</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.87043411325406</v>
+        <v>7.785218516309507</v>
       </c>
       <c r="K19">
-        <v>17.45555131458767</v>
+        <v>15.14551144571094</v>
       </c>
       <c r="L19">
-        <v>11.4382372912421</v>
+        <v>6.33491552921017</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.42182134217039</v>
+        <v>14.54767369900938</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.656132805980966</v>
+        <v>7.263035036196104</v>
       </c>
       <c r="E20">
-        <v>10.51384948926085</v>
+        <v>6.773039835161564</v>
       </c>
       <c r="F20">
-        <v>69.91366827853172</v>
+        <v>78.24888410715151</v>
       </c>
       <c r="G20">
-        <v>3.804167909912143</v>
+        <v>2.134601559990025</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.87715063043998</v>
+        <v>7.81294223960963</v>
       </c>
       <c r="K20">
-        <v>17.46790931179294</v>
+        <v>15.48946069360986</v>
       </c>
       <c r="L20">
-        <v>11.42285623818758</v>
+        <v>6.476316226621594</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.44699171431607</v>
+        <v>15.17883309266119</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.819822962138629</v>
+        <v>7.676590966878003</v>
       </c>
       <c r="E21">
-        <v>10.52271622213018</v>
+        <v>6.840172326009526</v>
       </c>
       <c r="F21">
-        <v>71.06222138010592</v>
+        <v>82.08111806207337</v>
       </c>
       <c r="G21">
-        <v>3.799489926374285</v>
+        <v>2.118294855304316</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.89951481351054</v>
+        <v>7.907703683514137</v>
       </c>
       <c r="K21">
-        <v>17.5172156248894</v>
+        <v>16.62297344174847</v>
       </c>
       <c r="L21">
-        <v>11.37483312470713</v>
+        <v>6.942619749063168</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.46799459515807</v>
+        <v>15.59557200379391</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.924164295783247</v>
+        <v>7.941976092508725</v>
       </c>
       <c r="E22">
-        <v>10.52850765472316</v>
+        <v>6.886195321834674</v>
       </c>
       <c r="F22">
-        <v>71.80681551004992</v>
+        <v>84.55892471156248</v>
       </c>
       <c r="G22">
-        <v>3.796540165912105</v>
+        <v>2.107608547780859</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.91398206676786</v>
+        <v>7.971069357400966</v>
       </c>
       <c r="K22">
-        <v>17.55521270296482</v>
+        <v>17.34879615700268</v>
       </c>
       <c r="L22">
-        <v>11.34618006333189</v>
+        <v>7.241525528658226</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.45636969269763</v>
+        <v>15.37275102906571</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.868724560532751</v>
+        <v>7.800758874820249</v>
       </c>
       <c r="E23">
-        <v>10.52541684913896</v>
+        <v>6.861412157037305</v>
       </c>
       <c r="F23">
-        <v>71.41001483012374</v>
+        <v>83.23877239320619</v>
       </c>
       <c r="G23">
-        <v>3.798104706571387</v>
+        <v>2.113317057345347</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90627414221382</v>
+        <v>7.937102732049439</v>
       </c>
       <c r="K23">
-        <v>17.53440692791388</v>
+        <v>16.96267976632049</v>
       </c>
       <c r="L23">
-        <v>11.36122213948038</v>
+        <v>7.082481374148093</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.42148706827257</v>
+        <v>14.53742778713739</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.653414605606089</v>
+        <v>7.256188098184049</v>
       </c>
       <c r="E24">
-        <v>10.5137044796873</v>
+        <v>6.771973994857786</v>
       </c>
       <c r="F24">
-        <v>69.89480477905738</v>
+        <v>78.18576799035819</v>
       </c>
       <c r="G24">
-        <v>3.804246194303952</v>
+        <v>2.13486809668963</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.87678255747292</v>
+        <v>7.811414259465075</v>
       </c>
       <c r="K24">
-        <v>17.46720131631716</v>
+        <v>15.47065931081019</v>
       </c>
       <c r="L24">
-        <v>11.42368716358284</v>
+        <v>6.468585872977248</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40351386907567</v>
+        <v>13.65442000231137</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.410690208395749</v>
+        <v>6.645792460456288</v>
       </c>
       <c r="E25">
-        <v>10.5010429508532</v>
+        <v>6.682676513261477</v>
       </c>
       <c r="F25">
-        <v>68.23952850721616</v>
+        <v>72.61025275727523</v>
       </c>
       <c r="G25">
-        <v>3.811336780912182</v>
+        <v>2.15820288836766</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.8443193203421</v>
+        <v>7.680572444610377</v>
       </c>
       <c r="K25">
-        <v>17.41966528446622</v>
+        <v>13.78778976583723</v>
       </c>
       <c r="L25">
-        <v>11.50274276419983</v>
+        <v>6.16565662679227</v>
       </c>
       <c r="M25">
         <v>0</v>
